--- a/xlsx/法治_intext.xlsx
+++ b/xlsx/法治_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="291">
   <si>
     <t>法治</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政治學基本主題列表</t>
+    <t>政治学基本主题列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
   </si>
   <si>
-    <t>封建制度 (歐洲)</t>
+    <t>封建制度 (欧洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>委員會制</t>
+    <t>委员会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E6%94%BF%E6%B2%BB</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>國際關係理論</t>
+    <t>国际关系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>司法機構</t>
+    <t>司法机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%89%E4%B8%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biology_and_political_orientation</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E8%A2%96</t>
   </si>
   <si>
-    <t>領袖</t>
+    <t>领袖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81</t>
@@ -407,13 +407,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>神學家</t>
+    <t>神学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E6%AC%8A%E7%A5%9E%E6%8E%88%E8%AA%AA</t>
   </si>
   <si>
-    <t>君權神授說</t>
+    <t>君权神授说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E9%9B%AA</t>
@@ -425,13 +425,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%81%E5%95%9F%E8%B6%85</t>
   </si>
   <si>
-    <t>梁啟超</t>
+    <t>梁启超</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9C%96</t>
   </si>
   <si>
-    <t>柏拉圖</t>
+    <t>柏拉图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E6%B3%95%E8%80%8C%E6%B2%BB</t>
@@ -461,13 +461,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%AB%94%E6%B3%95</t>
   </si>
   <si>
-    <t>實體法</t>
+    <t>实体法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E8%83%BD%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>機能主義</t>
+    <t>机能主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91</t>
@@ -545,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%95%AD%E4%BD%95</t>
   </si>
   <si>
-    <t>蕭何</t>
+    <t>萧何</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E7%AB%A0%E5%BE%8B</t>
@@ -593,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9E%E8%A7%80%E5%BE%8B</t>
   </si>
   <si>
-    <t>貞觀律</t>
+    <t>贞观律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E5%BE%BD%E5%BE%8B</t>
@@ -647,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%BB%8F</t>
@@ -659,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E6%BA%AF%E5%8F%8A%E6%97%A2%E5%BE%80%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>不溯及既往原則</t>
+    <t>不溯及既往原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E6%BA%AF%E6%80%A7</t>
@@ -671,13 +671,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>二次世界大戰</t>
+    <t>二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>人權</t>
+    <t>人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E5%85%AC%E6%AD%A3</t>
@@ -695,25 +695,22 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9D%83</t>
   </si>
   <si>
-    <t>人权</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E8%B3%A6%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>天賦人權</t>
+    <t>天赋人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>人權法案</t>
+    <t>人权法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E4%B8%96%E5%83%B9%E5%80%BC</t>
   </si>
   <si>
-    <t>普世價值</t>
+    <t>普世价值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E6%94%BF%E4%B8%BB%E4%B9%89</t>
@@ -737,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E6%B3%95%E6%B2%BB</t>
   </si>
   <si>
-    <t>中華人民共和國法治</t>
+    <t>中华人民共和国法治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%9B%86%E4%B8%AD%E5%88%B6</t>
@@ -761,7 +758,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E6%A8%99%E6%BA%96%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>現代標準漢語</t>
+    <t>现代标准汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
@@ -773,7 +770,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E6%AD%A5%E9%9B%B2</t>
   </si>
   <si>
-    <t>李步雲</t>
+    <t>李步云</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -815,13 +812,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%80%86%E8%81%B7</t>
   </si>
   <si>
-    <t>瀆職</t>
+    <t>渎职</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E8%8F%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>清華大學</t>
+    <t>清华大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%8E%E5%AD%A6%E9%80%9A</t>
@@ -845,9 +842,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>憲法</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8D%AB%C2%B7%E4%BC%91%E8%B0%9F</t>
   </si>
   <si>
@@ -857,7 +851,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%BE%B7%E6%96%AF%E9%B3%A9</t>
   </si>
   <si>
-    <t>孟德斯鳩</t>
+    <t>孟德斯鸠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E9%83%BD%E5%B8%82%E6%8A%A5</t>
@@ -875,13 +869,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E9%99%B8%E6%B3%95%E7%B3%BB</t>
   </si>
   <si>
-    <t>歐陸法系</t>
+    <t>欧陆法系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%BE%8E%E6%B3%95%E7%B3%BB</t>
@@ -4628,7 +4622,7 @@
         <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G117" t="n">
         <v>7</v>
@@ -4654,10 +4648,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>226</v>
+      </c>
+      <c r="F118" t="s">
         <v>227</v>
-      </c>
-      <c r="F118" t="s">
-        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -4683,10 +4677,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>228</v>
+      </c>
+      <c r="F119" t="s">
         <v>229</v>
-      </c>
-      <c r="F119" t="s">
-        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -4712,10 +4706,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>230</v>
+      </c>
+      <c r="F120" t="s">
         <v>231</v>
-      </c>
-      <c r="F120" t="s">
-        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4741,10 +4735,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>232</v>
+      </c>
+      <c r="F121" t="s">
         <v>233</v>
-      </c>
-      <c r="F121" t="s">
-        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4770,10 +4764,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>234</v>
+      </c>
+      <c r="F122" t="s">
         <v>235</v>
-      </c>
-      <c r="F122" t="s">
-        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>10</v>
@@ -4799,10 +4793,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>236</v>
+      </c>
+      <c r="F123" t="s">
         <v>237</v>
-      </c>
-      <c r="F123" t="s">
-        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>15</v>
@@ -4828,10 +4822,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>238</v>
+      </c>
+      <c r="F124" t="s">
         <v>239</v>
-      </c>
-      <c r="F124" t="s">
-        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -4857,10 +4851,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>240</v>
+      </c>
+      <c r="F125" t="s">
         <v>241</v>
-      </c>
-      <c r="F125" t="s">
-        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>3</v>
@@ -4886,10 +4880,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>242</v>
+      </c>
+      <c r="F126" t="s">
         <v>243</v>
-      </c>
-      <c r="F126" t="s">
-        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -4915,10 +4909,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>244</v>
+      </c>
+      <c r="F127" t="s">
         <v>245</v>
-      </c>
-      <c r="F127" t="s">
-        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4944,10 +4938,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>246</v>
+      </c>
+      <c r="F128" t="s">
         <v>247</v>
-      </c>
-      <c r="F128" t="s">
-        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4973,10 +4967,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>248</v>
+      </c>
+      <c r="F129" t="s">
         <v>249</v>
-      </c>
-      <c r="F129" t="s">
-        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5002,10 +4996,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>250</v>
+      </c>
+      <c r="F130" t="s">
         <v>251</v>
-      </c>
-      <c r="F130" t="s">
-        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -5031,10 +5025,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>252</v>
+      </c>
+      <c r="F131" t="s">
         <v>253</v>
-      </c>
-      <c r="F131" t="s">
-        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -5060,10 +5054,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>254</v>
+      </c>
+      <c r="F132" t="s">
         <v>255</v>
-      </c>
-      <c r="F132" t="s">
-        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5089,10 +5083,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>256</v>
+      </c>
+      <c r="F133" t="s">
         <v>257</v>
-      </c>
-      <c r="F133" t="s">
-        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>3</v>
@@ -5118,10 +5112,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>258</v>
+      </c>
+      <c r="F134" t="s">
         <v>259</v>
-      </c>
-      <c r="F134" t="s">
-        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5147,10 +5141,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>260</v>
+      </c>
+      <c r="F135" t="s">
         <v>261</v>
-      </c>
-      <c r="F135" t="s">
-        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5176,10 +5170,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>262</v>
+      </c>
+      <c r="F136" t="s">
         <v>263</v>
-      </c>
-      <c r="F136" t="s">
-        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>9</v>
@@ -5205,10 +5199,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>264</v>
+      </c>
+      <c r="F137" t="s">
         <v>265</v>
-      </c>
-      <c r="F137" t="s">
-        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5234,10 +5228,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>266</v>
+      </c>
+      <c r="F138" t="s">
         <v>267</v>
-      </c>
-      <c r="F138" t="s">
-        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5263,10 +5257,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>268</v>
+      </c>
+      <c r="F139" t="s">
         <v>269</v>
-      </c>
-      <c r="F139" t="s">
-        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -5292,10 +5286,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>270</v>
+      </c>
+      <c r="F140" t="s">
         <v>271</v>
-      </c>
-      <c r="F140" t="s">
-        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>4</v>
@@ -5321,10 +5315,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>272</v>
+      </c>
+      <c r="F141" t="s">
         <v>273</v>
-      </c>
-      <c r="F141" t="s">
-        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5350,10 +5344,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F142" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="G142" t="n">
         <v>9</v>
@@ -5379,10 +5373,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F143" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5408,10 +5402,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5437,10 +5431,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F145" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5466,10 +5460,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F146" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5495,10 +5489,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F147" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5524,10 +5518,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F148" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5553,10 +5547,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F149" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5582,10 +5576,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F150" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5611,10 +5605,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>232</v>
+      </c>
+      <c r="F151" t="s">
         <v>233</v>
-      </c>
-      <c r="F151" t="s">
-        <v>234</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
